--- a/Data_frame/balancos_definitivos/QUAL3.xlsx
+++ b/Data_frame/balancos_definitivos/QUAL3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA80"/>
+  <dimension ref="A1:BD80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,6 +699,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -862,6 +877,15 @@
       <c r="BA2" t="n">
         <v>4683344.896</v>
       </c>
+      <c r="BB2" t="n">
+        <v>4509324.8</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>4565757.952</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>4330566.144</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1025,6 +1049,15 @@
       <c r="BA3" t="n">
         <v>1624016</v>
       </c>
+      <c r="BB3" t="n">
+        <v>1618706.048</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1760907.008</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1570237.952</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1188,6 +1221,15 @@
       <c r="BA4" t="n">
         <v>298463.008</v>
       </c>
+      <c r="BB4" t="n">
+        <v>394588.992</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>497505.984</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>395671.008</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1351,6 +1393,15 @@
       <c r="BA5" t="n">
         <v>734097.9840000001</v>
       </c>
+      <c r="BB5" t="n">
+        <v>592179.008</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>629643.008</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>399620.992</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1514,6 +1565,15 @@
       <c r="BA6" t="n">
         <v>252228.992</v>
       </c>
+      <c r="BB6" t="n">
+        <v>242992.992</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>237071.008</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>296801.984</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1677,6 +1737,15 @@
       <c r="BA7" t="n">
         <v>0</v>
       </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1840,6 +1909,15 @@
       <c r="BA8" t="n">
         <v>0</v>
       </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2003,6 +2081,15 @@
       <c r="BA9" t="n">
         <v>0</v>
       </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2166,6 +2253,15 @@
       <c r="BA10" t="n">
         <v>0</v>
       </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2329,6 +2425,15 @@
       <c r="BA11" t="n">
         <v>339225.984</v>
       </c>
+      <c r="BB11" t="n">
+        <v>388944.992</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>396687.008</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>478144</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2492,6 +2597,15 @@
       <c r="BA12" t="n">
         <v>356476.992</v>
       </c>
+      <c r="BB12" t="n">
+        <v>297403.008</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>283140</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>294417.984</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2655,6 +2769,15 @@
       <c r="BA13" t="n">
         <v>0</v>
       </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2818,6 +2941,15 @@
       <c r="BA14" t="n">
         <v>0</v>
       </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2981,6 +3113,15 @@
       <c r="BA15" t="n">
         <v>0</v>
       </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3144,6 +3285,15 @@
       <c r="BA16" t="n">
         <v>0</v>
       </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3307,6 +3457,15 @@
       <c r="BA17" t="n">
         <v>0</v>
       </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3470,6 +3629,15 @@
       <c r="BA18" t="n">
         <v>0</v>
       </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3633,6 +3801,15 @@
       <c r="BA19" t="n">
         <v>223380</v>
       </c>
+      <c r="BB19" t="n">
+        <v>204066</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>204032</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>218492.992</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3796,6 +3973,15 @@
       <c r="BA20" t="n">
         <v>0</v>
       </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3959,6 +4145,15 @@
       <c r="BA21" t="n">
         <v>0</v>
       </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4122,6 +4317,15 @@
       <c r="BA22" t="n">
         <v>262</v>
       </c>
+      <c r="BB22" t="n">
+        <v>262</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>262</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4285,6 +4489,15 @@
       <c r="BA23" t="n">
         <v>65540</v>
       </c>
+      <c r="BB23" t="n">
+        <v>38152</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>31494</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>40495</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4448,6 +4661,15 @@
       <c r="BA24" t="n">
         <v>2637050.112</v>
       </c>
+      <c r="BB24" t="n">
+        <v>2554801.92</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>2489955.072</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2425153.024</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4611,6 +4833,15 @@
       <c r="BA25" t="n">
         <v>0</v>
       </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4774,6 +5005,15 @@
       <c r="BA26" t="n">
         <v>4683344.896</v>
       </c>
+      <c r="BB26" t="n">
+        <v>4509324.8</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>4565757.952</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>4330566.144</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4937,6 +5177,15 @@
       <c r="BA27" t="n">
         <v>1401821.952</v>
       </c>
+      <c r="BB27" t="n">
+        <v>1303623.04</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1345964.032</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1435753.984</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5100,6 +5349,15 @@
       <c r="BA28" t="n">
         <v>59788</v>
       </c>
+      <c r="BB28" t="n">
+        <v>49507</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>43534</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>42271</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5263,6 +5521,15 @@
       <c r="BA29" t="n">
         <v>350024</v>
       </c>
+      <c r="BB29" t="n">
+        <v>481495.008</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>367992</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>381284.992</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5426,6 +5693,15 @@
       <c r="BA30" t="n">
         <v>28857</v>
       </c>
+      <c r="BB30" t="n">
+        <v>25916</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>32167</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>25441</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5589,6 +5865,15 @@
       <c r="BA31" t="n">
         <v>664635.008</v>
       </c>
+      <c r="BB31" t="n">
+        <v>579705.9840000001</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>647990.976</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>613358.976</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5752,6 +6037,15 @@
       <c r="BA32" t="n">
         <v>22044</v>
       </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5915,6 +6209,15 @@
       <c r="BA33" t="n">
         <v>0</v>
       </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6078,6 +6381,15 @@
       <c r="BA34" t="n">
         <v>276473.984</v>
       </c>
+      <c r="BB34" t="n">
+        <v>166999.008</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>254280</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>373398.016</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6241,6 +6553,15 @@
       <c r="BA35" t="n">
         <v>0</v>
       </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6404,6 +6725,15 @@
       <c r="BA36" t="n">
         <v>0</v>
       </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6567,6 +6897,15 @@
       <c r="BA37" t="n">
         <v>1940774.016</v>
       </c>
+      <c r="BB37" t="n">
+        <v>1920168.96</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1914478.976</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1571394.048</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6730,6 +7069,15 @@
       <c r="BA38" t="n">
         <v>1666456.064</v>
       </c>
+      <c r="BB38" t="n">
+        <v>1657506.944</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1654082.944</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1314610.048</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6893,6 +7241,15 @@
       <c r="BA39" t="n">
         <v>0</v>
       </c>
+      <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7056,6 +7413,15 @@
       <c r="BA40" t="n">
         <v>106013</v>
       </c>
+      <c r="BB40" t="n">
+        <v>108802</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>97613</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>98822</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7219,6 +7585,15 @@
       <c r="BA41" t="n">
         <v>82421</v>
       </c>
+      <c r="BB41" t="n">
+        <v>67825</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>70329</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>70419</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7382,6 +7757,15 @@
       <c r="BA42" t="n">
         <v>0</v>
       </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7545,6 +7929,15 @@
       <c r="BA43" t="n">
         <v>85884</v>
       </c>
+      <c r="BB43" t="n">
+        <v>86035</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>92454</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>87543</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7708,6 +8101,15 @@
       <c r="BA44" t="n">
         <v>0</v>
       </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7871,6 +8273,15 @@
       <c r="BA45" t="n">
         <v>0</v>
       </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8034,6 +8445,15 @@
       <c r="BA46" t="n">
         <v>14588</v>
       </c>
+      <c r="BB46" t="n">
+        <v>15319</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>16796</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>17866</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8197,6 +8617,15 @@
       <c r="BA47" t="n">
         <v>1326161.056</v>
       </c>
+      <c r="BB47" t="n">
+        <v>1270214.056</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1288518.944</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1305551.984</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8360,6 +8789,15 @@
       <c r="BA48" t="n">
         <v>875574.976</v>
       </c>
+      <c r="BB48" t="n">
+        <v>875574.976</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>875574.976</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>875574.976</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8523,6 +8961,15 @@
       <c r="BA49" t="n">
         <v>15711</v>
       </c>
+      <c r="BB49" t="n">
+        <v>18432</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>19858</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>23598</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8686,6 +9133,15 @@
       <c r="BA50" t="n">
         <v>0</v>
       </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8849,6 +9305,15 @@
       <c r="BA51" t="n">
         <v>458641.984</v>
       </c>
+      <c r="BB51" t="n">
+        <v>376207.008</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>376207.008</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>376207.008</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9012,6 +9477,15 @@
       <c r="BA52" t="n">
         <v>-23767</v>
       </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>16879</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>30172</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9175,6 +9649,15 @@
       <c r="BA53" t="n">
         <v>0</v>
       </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9338,6 +9821,15 @@
       <c r="BA54" t="n">
         <v>0</v>
       </c>
+      <c r="BB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9501,6 +9993,15 @@
       <c r="BA55" t="n">
         <v>0</v>
       </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9662,6 +10163,15 @@
         <v>0</v>
       </c>
       <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9723,6 +10233,9 @@
       <c r="AY57" t="inlineStr"/>
       <c r="AZ57" t="inlineStr"/>
       <c r="BA57" t="inlineStr"/>
+      <c r="BB57" t="inlineStr"/>
+      <c r="BC57" t="inlineStr"/>
+      <c r="BD57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9782,6 +10295,9 @@
       <c r="AY58" t="inlineStr"/>
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="inlineStr"/>
+      <c r="BD58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9943,6 +10459,15 @@
       <c r="BA59" t="n">
         <v>443168</v>
       </c>
+      <c r="BB59" t="n">
+        <v>414420.064</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>403686.016</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>398751.008</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10104,6 +10629,15 @@
       <c r="BA60" t="n">
         <v>-88422</v>
       </c>
+      <c r="BB60" t="n">
+        <v>-96447.008</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>-75448</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>-69113</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10265,6 +10799,15 @@
       <c r="BA61" t="n">
         <v>354745.984</v>
       </c>
+      <c r="BB61" t="n">
+        <v>317972.992</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>328238.016</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>329638.016</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10426,6 +10969,15 @@
       <c r="BA62" t="n">
         <v>-135804.992</v>
       </c>
+      <c r="BB62" t="n">
+        <v>-130131.024</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>-111307</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>-120405</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10587,6 +11139,15 @@
       <c r="BA63" t="n">
         <v>-106465</v>
       </c>
+      <c r="BB63" t="n">
+        <v>-101349</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>-86169</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>-88447</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10748,6 +11309,15 @@
       <c r="BA64" t="n">
         <v>-27669</v>
       </c>
+      <c r="BB64" t="n">
+        <v>-63602</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>-29786</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>-31126</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10909,6 +11479,15 @@
       <c r="BA65" t="n">
         <v>0</v>
       </c>
+      <c r="BB65" t="n">
+        <v>15587</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11070,6 +11649,15 @@
       <c r="BA66" t="n">
         <v>-110584</v>
       </c>
+      <c r="BB66" t="n">
+        <v>-65768</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>-27059</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>-39014</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11231,6 +11819,15 @@
       <c r="BA67" t="n">
         <v>149</v>
       </c>
+      <c r="BB67" t="n">
+        <v>-341</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11392,6 +11989,15 @@
       <c r="BA68" t="n">
         <v>-54453</v>
       </c>
+      <c r="BB68" t="n">
+        <v>-51414</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>-43800</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>-43009</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11553,6 +12159,15 @@
       <c r="BA69" t="n">
         <v>44628</v>
       </c>
+      <c r="BB69" t="n">
+        <v>40215.008</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>39412</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>44058</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11713,6 +12328,15 @@
       </c>
       <c r="BA70" t="n">
         <v>-99081</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>-91629.008</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>-83212</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>-87067</v>
       </c>
     </row>
     <row r="71">
@@ -11773,6 +12397,9 @@
       <c r="AY71" t="inlineStr"/>
       <c r="AZ71" t="inlineStr"/>
       <c r="BA71" t="inlineStr"/>
+      <c r="BB71" t="inlineStr"/>
+      <c r="BC71" t="inlineStr"/>
+      <c r="BD71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11832,6 +12459,9 @@
       <c r="AY72" t="inlineStr"/>
       <c r="AZ72" t="inlineStr"/>
       <c r="BA72" t="inlineStr"/>
+      <c r="BB72" t="inlineStr"/>
+      <c r="BC72" t="inlineStr"/>
+      <c r="BD72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11891,6 +12521,9 @@
       <c r="AY73" t="inlineStr"/>
       <c r="AZ73" t="inlineStr"/>
       <c r="BA73" t="inlineStr"/>
+      <c r="BB73" t="inlineStr"/>
+      <c r="BC73" t="inlineStr"/>
+      <c r="BD73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12052,6 +12685,15 @@
       <c r="BA74" t="n">
         <v>-80081</v>
       </c>
+      <c r="BB74" t="n">
+        <v>-79045</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>30117</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>7637</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12213,6 +12855,15 @@
       <c r="BA75" t="n">
         <v>-21347</v>
       </c>
+      <c r="BB75" t="n">
+        <v>26494</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>-9148</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>-6898</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12373,6 +13024,15 @@
       </c>
       <c r="BA76" t="n">
         <v>48689</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>-4717</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>-2538</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>14370</v>
       </c>
     </row>
     <row r="77">
@@ -12433,6 +13093,9 @@
       <c r="AY77" t="inlineStr"/>
       <c r="AZ77" t="inlineStr"/>
       <c r="BA77" t="inlineStr"/>
+      <c r="BB77" t="inlineStr"/>
+      <c r="BC77" t="inlineStr"/>
+      <c r="BD77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -12492,6 +13155,9 @@
       <c r="AY78" t="inlineStr"/>
       <c r="AZ78" t="inlineStr"/>
       <c r="BA78" t="inlineStr"/>
+      <c r="BB78" t="inlineStr"/>
+      <c r="BC78" t="inlineStr"/>
+      <c r="BD78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12653,6 +13319,15 @@
       <c r="BA79" t="n">
         <v>-1438</v>
       </c>
+      <c r="BB79" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>-1552</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>-1816</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -12814,6 +13489,15 @@
       <c r="BA80" t="n">
         <v>9368</v>
       </c>
+      <c r="BB80" t="n">
+        <v>-122213</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>16879</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>13293</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
